--- a/Documentos/LUIS_CLAUDIO+LUIS_FERNANDO+MILTON/G3-TMP/TAR.xlsx
+++ b/Documentos/LUIS_CLAUDIO+LUIS_FERNANDO+MILTON/G3-TMP/TAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisc\Desktop\6 Semestre\Gestão de Projeto\LUIS_CLAUDIO+LUIS_FERNANDO+MILTON\G3-TMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisc\Documents\GitHub\Oficina-BSMotos\Documentos\LUIS_CLAUDIO+LUIS_FERNANDO+MILTON\G3-TMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
-  <si>
-    <t>Desenvolvimento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Cod. EAP</t>
   </si>
@@ -131,18 +128,12 @@
     <t>1.3.1.2</t>
   </si>
   <si>
-    <t>Padronização de Projeto</t>
-  </si>
-  <si>
     <t>Codificação Back-End</t>
   </si>
   <si>
     <t>1.3.2</t>
   </si>
   <si>
-    <t>1.3.2.1</t>
-  </si>
-  <si>
     <t>Testes no sistema com o Cliente</t>
   </si>
   <si>
@@ -177,6 +168,108 @@
   </si>
   <si>
     <t>Treinamento ao cliente</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Computadores</t>
+  </si>
+  <si>
+    <t>Tempo(Dias)</t>
+  </si>
+  <si>
+    <t>Sucede</t>
+  </si>
+  <si>
+    <t>Mão de Obra</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>Projetor</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>Precede</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T24</t>
   </si>
 </sst>
 </file>
@@ -206,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -323,91 +416,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -423,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,7 +488,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -455,61 +520,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,454 +818,1255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="L7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="2">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="L19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="2">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="L22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>16</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" s="2">
         <v>17</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>18</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>10</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="2">
         <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
         <v>20</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>4</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C30" s="2">
         <v>21</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2">
+        <v>22</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2">
-        <v>22</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>4</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
         <v>23</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="6">
         <v>24</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="12">
-        <v>25</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>50</v>
+      <c r="D37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="23">
+        <v>1</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <v>1</v>
+      </c>
+      <c r="I37" s="23">
+        <v>2</v>
+      </c>
+      <c r="J37" s="23">
+        <v>1</v>
+      </c>
+      <c r="K37" s="23">
+        <v>2</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="12">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A13:M13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
